--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Sstr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cort-Sstr4.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Sstr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Sstr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>0.77603</v>
       </c>
       <c r="I2">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J2">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.144926666666667</v>
+        <v>5.415507666666667</v>
       </c>
       <c r="N2">
-        <v>12.43478</v>
+        <v>16.246523</v>
       </c>
       <c r="O2">
-        <v>0.8517121944056003</v>
+        <v>0.8321390904960287</v>
       </c>
       <c r="P2">
-        <v>0.8517121944056005</v>
+        <v>0.8321390904960289</v>
       </c>
       <c r="Q2">
-        <v>1.072195813711111</v>
+        <v>1.400865471521111</v>
       </c>
       <c r="R2">
-        <v>9.649762323399999</v>
+        <v>12.60778924369</v>
       </c>
       <c r="S2">
-        <v>0.6472556947019068</v>
+        <v>0.7620768826052612</v>
       </c>
       <c r="T2">
-        <v>0.647255694701907</v>
+        <v>0.7620768826052613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.77603</v>
       </c>
       <c r="I3">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J3">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>0.653609</v>
       </c>
       <c r="O3">
-        <v>0.04476852470837844</v>
+        <v>0.0334775384739257</v>
       </c>
       <c r="P3">
-        <v>0.04476852470837845</v>
+        <v>0.03347753847392571</v>
       </c>
       <c r="Q3">
         <v>0.05635779914111111</v>
@@ -638,10 +638,10 @@
         <v>0.50722019227</v>
       </c>
       <c r="S3">
-        <v>0.03402168332358262</v>
+        <v>0.03065888677612693</v>
       </c>
       <c r="T3">
-        <v>0.03402168332358263</v>
+        <v>0.03065888677612694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -670,40 +670,40 @@
         <v>0.77603</v>
       </c>
       <c r="I4">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J4">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2971823333333333</v>
+        <v>0.2013576666666667</v>
       </c>
       <c r="N4">
-        <v>0.891547</v>
+        <v>0.6040730000000001</v>
       </c>
       <c r="O4">
-        <v>0.06106593375883849</v>
+        <v>0.03094032838984733</v>
       </c>
       <c r="P4">
-        <v>0.06106593375883852</v>
+        <v>0.03094032838984733</v>
       </c>
       <c r="Q4">
-        <v>0.07687413537888889</v>
+        <v>0.05208653002111112</v>
       </c>
       <c r="R4">
-        <v>0.69186721841</v>
+        <v>0.4687787701900001</v>
       </c>
       <c r="S4">
-        <v>0.04640684216724388</v>
+        <v>0.02833529787918362</v>
       </c>
       <c r="T4">
-        <v>0.04640684216724391</v>
+        <v>0.02833529787918363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>0.77603</v>
       </c>
       <c r="I5">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J5">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.112826</v>
+        <v>0.200945</v>
       </c>
       <c r="N5">
-        <v>0.338478</v>
+        <v>0.602835</v>
       </c>
       <c r="O5">
-        <v>0.02318383116854651</v>
+        <v>0.03087691862555289</v>
       </c>
       <c r="P5">
-        <v>0.02318383116854652</v>
+        <v>0.03087691862555289</v>
       </c>
       <c r="Q5">
-        <v>0.02918545359333333</v>
+        <v>0.05197978278333334</v>
       </c>
       <c r="R5">
-        <v>0.26266908234</v>
+        <v>0.46781804505</v>
       </c>
       <c r="S5">
-        <v>0.01761847117772184</v>
+        <v>0.02827722691959028</v>
       </c>
       <c r="T5">
-        <v>0.01761847117772185</v>
+        <v>0.02827722691959028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -794,40 +794,40 @@
         <v>0.77603</v>
       </c>
       <c r="I6">
-        <v>0.7599464924341242</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="J6">
-        <v>0.7599464924341243</v>
+        <v>0.9158046909573684</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09377666666666666</v>
+        <v>0.4722556666666667</v>
       </c>
       <c r="N6">
-        <v>0.28133</v>
+        <v>1.416767</v>
       </c>
       <c r="O6">
-        <v>0.01926951595863598</v>
+        <v>0.07256612401464529</v>
       </c>
       <c r="P6">
-        <v>0.01926951595863598</v>
+        <v>0.07256612401464529</v>
       </c>
       <c r="Q6">
-        <v>0.02425783554444444</v>
+        <v>0.1221615216677778</v>
       </c>
       <c r="R6">
-        <v>0.2183205199</v>
+        <v>1.09945369501</v>
       </c>
       <c r="S6">
-        <v>0.01464380106366879</v>
+        <v>0.0664563967772063</v>
       </c>
       <c r="T6">
-        <v>0.0146438010636688</v>
+        <v>0.0664563967772063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H7">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I7">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J7">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.144926666666667</v>
+        <v>5.415507666666667</v>
       </c>
       <c r="N7">
-        <v>12.43478</v>
+        <v>16.246523</v>
       </c>
       <c r="O7">
-        <v>0.8517121944056003</v>
+        <v>0.8321390904960287</v>
       </c>
       <c r="P7">
-        <v>0.8517121944056005</v>
+        <v>0.8321390904960289</v>
       </c>
       <c r="Q7">
-        <v>0.3386874845022222</v>
+        <v>0.1287897981594445</v>
       </c>
       <c r="R7">
-        <v>3.04818736052</v>
+        <v>1.159108183435</v>
       </c>
       <c r="S7">
-        <v>0.2044564997036935</v>
+        <v>0.07006220789076759</v>
       </c>
       <c r="T7">
-        <v>0.2044564997036935</v>
+        <v>0.07006220789076759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H8">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I8">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J8">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.653609</v>
       </c>
       <c r="O8">
-        <v>0.04476852470837844</v>
+        <v>0.0334775384739257</v>
       </c>
       <c r="P8">
-        <v>0.04476852470837845</v>
+        <v>0.03347753847392571</v>
       </c>
       <c r="Q8">
-        <v>0.01780242095622222</v>
+        <v>0.005181303789444445</v>
       </c>
       <c r="R8">
-        <v>0.160221788606</v>
+        <v>0.046631734105</v>
       </c>
       <c r="S8">
-        <v>0.01074684138479582</v>
+        <v>0.002818651697798766</v>
       </c>
       <c r="T8">
-        <v>0.01074684138479583</v>
+        <v>0.002818651697798766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H9">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I9">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J9">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2971823333333333</v>
+        <v>0.2013576666666667</v>
       </c>
       <c r="N9">
-        <v>0.891547</v>
+        <v>0.6040730000000001</v>
       </c>
       <c r="O9">
-        <v>0.06106593375883849</v>
+        <v>0.03094032838984733</v>
       </c>
       <c r="P9">
-        <v>0.06106593375883852</v>
+        <v>0.03094032838984733</v>
       </c>
       <c r="Q9">
-        <v>0.02428316469977778</v>
+        <v>0.004788620909444445</v>
       </c>
       <c r="R9">
-        <v>0.218548482298</v>
+        <v>0.04309758818500001</v>
       </c>
       <c r="S9">
-        <v>0.01465909159159461</v>
+        <v>0.002605030510663706</v>
       </c>
       <c r="T9">
-        <v>0.01465909159159461</v>
+        <v>0.002605030510663706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H10">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I10">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J10">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.112826</v>
+        <v>0.200945</v>
       </c>
       <c r="N10">
-        <v>0.338478</v>
+        <v>0.602835</v>
       </c>
       <c r="O10">
-        <v>0.02318383116854651</v>
+        <v>0.03087691862555289</v>
       </c>
       <c r="P10">
-        <v>0.02318383116854652</v>
+        <v>0.03087691862555289</v>
       </c>
       <c r="Q10">
-        <v>0.009219162894666668</v>
+        <v>0.004778807008333334</v>
       </c>
       <c r="R10">
-        <v>0.08297246605200001</v>
+        <v>0.04300926307500001</v>
       </c>
       <c r="S10">
-        <v>0.005565359990824668</v>
+        <v>0.002599691705962616</v>
       </c>
       <c r="T10">
-        <v>0.00556535999082467</v>
+        <v>0.002599691705962616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08171133333333334</v>
+        <v>0.02378166666666667</v>
       </c>
       <c r="H11">
-        <v>0.245134</v>
+        <v>0.07134500000000001</v>
       </c>
       <c r="I11">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263167</v>
       </c>
       <c r="J11">
-        <v>0.2400535075658758</v>
+        <v>0.08419530904263166</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09377666666666666</v>
+        <v>0.4722556666666667</v>
       </c>
       <c r="N11">
-        <v>0.28133</v>
+        <v>1.416767</v>
       </c>
       <c r="O11">
-        <v>0.01926951595863598</v>
+        <v>0.07256612401464529</v>
       </c>
       <c r="P11">
-        <v>0.01926951595863598</v>
+        <v>0.07256612401464529</v>
       </c>
       <c r="Q11">
-        <v>0.007662616468888889</v>
+        <v>0.01123102684611111</v>
       </c>
       <c r="R11">
-        <v>0.06896354822</v>
+        <v>0.101079241615</v>
       </c>
       <c r="S11">
-        <v>0.004625714894967188</v>
+        <v>0.006109727237438996</v>
       </c>
       <c r="T11">
-        <v>0.004625714894967188</v>
+        <v>0.006109727237438995</v>
       </c>
     </row>
   </sheetData>
